--- a/iteraciones/iteración2/resources/Horas-de-trabajo.xlsx
+++ b/iteraciones/iteración2/resources/Horas-de-trabajo.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27706"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_6E9884C96C5F32C11374EBE5007A82ABEFF2D51E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AFC8A67-1560-46DE-B0B9-7C9EB4ED536B}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\German\ORT\IngenieriaSWAgil1\Miniproyecto\isa1-n6a-id-mini-proyecto-agil-isa-n6a-id-mini-proyecto-agil-equipo2\iteraciones\iteración2\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Iteracion2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,11 +61,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,d\-mmm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -184,9 +186,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,7 +223,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +258,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,14 +431,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
@@ -452,7 +454,7 @@
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="4">
         <v>45417</v>
@@ -498,7 +500,7 @@
       </c>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -545,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -590,7 +592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -637,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -684,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -731,7 +733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -778,7 +780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -829,28 +831,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>